--- a/data/CONFIGURACION.xlsx
+++ b/data/CONFIGURACION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlipioD\KAP\EmailAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38938E10-049D-4DC9-AAED-09BDA78857DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A6A79-C688-47BB-B4AB-C60EBC7FB068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
